--- a/talleres/taller04/Complejidad asintótica Taller04.xlsx
+++ b/talleres/taller04/Complejidad asintótica Taller04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvele\Dropbox\EAFIT\SEMESTRE II\ESTRUCTURAS DE DATOS Y ALGORÍTMOS\Talleres\taller04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5EFEAC-39A4-4DB0-A75D-1C853E7C5760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC4F36-CDC6-4EC7-A1A9-F581A79ECF12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{51EC8301-64EC-48D2-B555-7085B64BF35E}"/>
   </bookViews>
@@ -444,6 +444,69 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10760050826979961"/>
+                  <c:y val="-2.9169675090252707E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Máximo!$A$2:$A$21</c:f>
@@ -451,64 +514,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1980</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1981</c:v>
+                  <c:v>9001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1982</c:v>
+                  <c:v>9002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1983</c:v>
+                  <c:v>9003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1984</c:v>
+                  <c:v>9004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1985</c:v>
+                  <c:v>9005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1986</c:v>
+                  <c:v>9006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1987</c:v>
+                  <c:v>9007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1988</c:v>
+                  <c:v>9008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1989</c:v>
+                  <c:v>9009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1990</c:v>
+                  <c:v>9010</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1991</c:v>
+                  <c:v>9011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1992</c:v>
+                  <c:v>9012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1993</c:v>
+                  <c:v>9013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1994</c:v>
+                  <c:v>9014</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1995</c:v>
+                  <c:v>9015</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>9016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1997</c:v>
+                  <c:v>9017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1998</c:v>
+                  <c:v>9018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1999</c:v>
+                  <c:v>9019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,64 +583,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,6 +1085,97 @@
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0381371650863075E-2"/>
+                  <c:y val="-1.900915670070975E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                      <a:t>R² = 0,982</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Volumenes!$A$2:$A$21</c:f>
@@ -1101,61 +1255,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>342</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1134</c:v>
+                  <c:v>2258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2640</c:v>
+                  <c:v>3836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4716</c:v>
+                  <c:v>8898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6736</c:v>
+                  <c:v>15058</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19350</c:v>
+                  <c:v>35055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,7 +1843,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1698,55 +1852,55 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>256</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>414</c:v>
+                  <c:v>951</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>685</c:v>
+                  <c:v>1538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3728,15 +3882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
+      <xdr:colOff>280986</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3769,13 +3923,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>188912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -4105,7 +4259,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4120,130 +4274,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>1980</v>
+        <v>9000</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>1981</v>
+        <v>9001</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>1982</v>
+        <v>9002</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>1983</v>
+        <v>9003</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>1984</v>
+        <v>9004</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>1985</v>
+        <v>9005</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>1986</v>
+        <v>9006</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>1987</v>
+        <v>9007</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>1988</v>
+        <v>9008</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>1989</v>
+        <v>9009</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>1990</v>
+        <v>9010</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>1991</v>
+        <v>9011</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>1992</v>
+        <v>9012</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>1993</v>
+        <v>9013</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
-        <v>1994</v>
+        <v>9014</v>
       </c>
       <c r="B16" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>1995</v>
+        <v>9015</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>5</v>
@@ -4253,10 +4407,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>1996</v>
+        <v>9016</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -4264,10 +4418,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>1997</v>
+        <v>9017</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -4275,10 +4429,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>1998</v>
+        <v>9018</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
@@ -4286,10 +4440,10 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
-        <v>1999</v>
+        <v>9019</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -4308,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B243DE4-ED81-4D0C-BB76-E8690E760B81}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4335,7 +4489,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4343,7 +4497,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4351,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4359,7 +4513,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4367,7 +4521,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4383,7 +4537,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4391,7 +4545,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4399,7 +4553,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4407,7 +4561,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4415,7 +4569,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4423,7 +4577,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4431,7 +4585,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>219</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4439,7 +4593,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>342</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4447,7 +4601,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>1134</v>
+        <v>2258</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>4</v>
@@ -4460,7 +4614,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>2640</v>
+        <v>3836</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -4471,7 +4625,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>4716</v>
+        <v>8898</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -4482,7 +4636,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>6736</v>
+        <v>15058</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
@@ -4493,7 +4647,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>19350</v>
+        <v>35055</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
@@ -4521,7 +4675,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4542,7 +4696,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -4566,7 +4720,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -4574,7 +4728,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4582,7 +4736,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -4590,7 +4744,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -4598,7 +4752,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -4606,7 +4760,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -4614,7 +4768,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -4622,7 +4776,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -4630,7 +4784,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -4638,7 +4792,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="2">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -4646,7 +4800,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4654,7 +4808,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="2">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -4662,7 +4816,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="2">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>6</v>
@@ -4675,7 +4829,7 @@
         <v>38</v>
       </c>
       <c r="B18" s="2">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
@@ -4686,7 +4840,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
@@ -4697,7 +4851,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="2">
-        <v>414</v>
+        <v>951</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
@@ -4708,7 +4862,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="3">
-        <v>685</v>
+        <v>1538</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
@@ -4724,6 +4878,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010064B7FB76FF1247439E234AD1834F1E7E" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="56f5680e6125b467275acafe36ec36ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0707af51-bf31-4cf7-b57c-fd338fbf312b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5725dbcafbeaa5567af6ed03e1438d2b" ns2:_="">
     <xsd:import namespace="0707af51-bf31-4cf7-b57c-fd338fbf312b"/>
@@ -4869,35 +5038,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{517770D3-ED90-42A0-8663-0742CA7C755A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB2B894-C90E-4652-A467-18F2F2D08CB0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0707af51-bf31-4cf7-b57c-fd338fbf312b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4919,9 +5063,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB2B894-C90E-4652-A467-18F2F2D08CB0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{517770D3-ED90-42A0-8663-0742CA7C755A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0707af51-bf31-4cf7-b57c-fd338fbf312b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>